--- a/medicine/Mort/Décès_en_1936/Décès_en_1936.xlsx
+++ b/medicine/Mort/Décès_en_1936/Décès_en_1936.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1936</t>
+          <t>Décès_en_1936</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1936</t>
+          <t>Décès_en_1936</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Louis-Émile Blanchard, peintre paysagiste français (° 1876).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Louis-Émile Blanchard, peintre paysagiste français (° 1876).
 François Max Bugnicourt, peintre et graveur français (° 1868).
 Achille Carelli, peintre italien (° 1856).
 Alphonse Cellier, peintre français (° 17 septembre 1875).
@@ -551,9 +568,43 @@
 1930 ou 1936 :
 Jean Enders, peintre français (° 22 août 1861).
 Après 1936 :
-Jack Abeillé, peintre, affichiste, dessinateur et illustrateur français (° 28 mai 1873).
-Janvier
-2 janvier : Jules Destrée, homme politique belge (° 21 août 1863).
+Jack Abeillé, peintre, affichiste, dessinateur et illustrateur français (° 28 mai 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Jules Destrée, homme politique belge (° 21 août 1863).
 3 janvier : Pietro Bestetti, coureur cycliste italien (° 12 décembre 1898).
 8 janvier : John Augustus Barron, politicien.
 9 janvier : John Gilbert, acteur américain (° 10 juillet 1899).
@@ -569,9 +620,43 @@
 22 janvier : Louis Glass, compositeur danois (° 23 mars 1864).
 23 janvier : Edmond Aman-Jean, peintre, graveur et critique d'art français (° 13 novembre 1858).
 26 janvier : Francis O'Neill, officier de police américain d'origine irlandaise et collecteur de musique traditionnelle irlandaise (° 28 août 1848).
-27 janvier : Jacques Guilhène, acteur français (° 6 janvier 1886).
-Février
-3 février : Eddie Boland, acteur américain (° 27 décembre 1883).
+27 janvier : Jacques Guilhène, acteur français (° 6 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février : Eddie Boland, acteur américain (° 27 décembre 1883).
 6 février : Désiré Alfred Magne, peintre français (° 27 février 1855).
 9 février :
 Jacques Bainville, journaliste, chroniqueur de politique étrangère, historien et académicien français (° 9 février 1879).
@@ -585,11 +670,79 @@
 26 février : Vasileios de Dryinoupolis, une des principales figures de l’orthodoxie nord-épirote des années 1910 et membre du gouvernement de la République autonome d’Épire du Nord (° 1858).
 27 février : Ivan Pavlov, médecin et physiologiste russe puis soviétique (° 26 septembre 1849).
 28 février : Julien Le Blant, peintre français (° 30 mars 1851).
-? février : Henri-Gabriel Ibels, peintre, dessinateur, graveur et affichiste français (° 30 novembre 1867).
-Mars
-26 mars : Urani Rumbo,  dramaturge et féministe Albanaise  (° 1895).
-Avril
-1er avril : Veli Nieminen, athlète finlandais (° 1er février 1886).
+? février : Henri-Gabriel Ibels, peintre, dessinateur, graveur et affichiste français (° 30 novembre 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26 mars : Urani Rumbo,  dramaturge et féministe Albanaise  (° 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Veli Nieminen, athlète finlandais (° 1er février 1886).
 2 avril : William Louis Abbott, naturaliste et un collectionneur américain (° 23 février 1860).
 6 avril : Edmund Breese, acteur américain (° 18 juin 1871).
 8 avril : Pierre Dumont, peintre français (° 29 mars 1884).
@@ -598,9 +751,43 @@
 26 avril : Eino Rahja, homme politique russo-finnois (° 20 juin 1885).
 28 avril : Fouad Ier, sultan puis roi d'égypte (° 26 mars 1868).
 29 avril : Élisabeth Bergeron, sœur religieuse canadienne (° 25 mai 1851).
-30 avril : Maurice Busset, xylographe français (° 18 décembre 1880).
-Mai
-1er mai : Ernst Reicher, acteur et réalisateur allemand (° 19 septembre 1885).
+30 avril : Maurice Busset, xylographe français (° 18 décembre 1880).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Ernst Reicher, acteur et réalisateur allemand (° 19 septembre 1885).
 3 mai : Alan Crolius, acteur américain (° 31 mars 1889).
 5 mai : Grigori Tchirikov, restaurateur d'art, peintre d'icône et collectionneur russe puis soviétique (° 1882).
 7 mai : Isidore-Noël Belleau, politicien québécois (° 7 mars 1848).
@@ -610,9 +797,43 @@
 16 mai : Albert Nikolaïevitch Benois, aquarelliste russe (° 14 mars 1852).
 25 mai : Ján Levoslav Bella, compositeur, chef d'orchestre et enseignant slovaque (° 4 septembre 1843).
 27 mai : Lucien Lièvre, peintre français (° 27 mai 1878).
-29 mai : Eugênio Luis Müller, homme politique brésilien (° 13 novembre 1856).
-Juin
-4 juin : Bernard-Joseph Artigue, peintre français (° 27 avril 1859).
+29 mai : Eugênio Luis Müller, homme politique brésilien (° 13 novembre 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4 juin : Bernard-Joseph Artigue, peintre français (° 27 avril 1859).
 11 juin : Robert Ervin Howard, écrivain américain d'heroic fantasy (° 22 janvier 1906).
 14 juin :
 G. K. Chesterton, écrivain britannique (° 29 mai 1874).
@@ -622,9 +843,43 @@
 25 juin : Joseph Mittey, peintre suisse d'origine française (° 1er avril 1853).
 27 juin : Antonio Locatelli, aviateur, homme politique, écrivain, journaliste, peintre et dessinateur italien (° 17 avril 1895).
 28 juin : Henri Jaubert, peintre et aquarelliste français (° 21 mai 1860).
-? juin : Laura Leroux-Revault, peintre française (° 14 septembre 1872).
-Juillet
-1er juillet :
+? juin : Laura Leroux-Revault, peintre française (° 14 septembre 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet :
 Judith Marquet-Krause, archéologue palestinienne (° 1906).
 José Silbert, peintre français (° 20 janvier 1862).
 3 juillet : Eugène Decisy, peintre et graveur français (° 5 février 1866).
@@ -633,9 +888,43 @@
 7 juillet : Amalie Vanotti, peintre badoise (° 30 janvier 1853).
 12 juillet : Kunishirō Mitsutani, peintre japonais de genre et aquarelliste (° 10 novembre 1874).
 15 juillet : Alberto Pisa, peintre italien (° 19 mars 1864).
-22 juillet : Otto Pilny, peintre suisse (° 28 juin 1866).
-Août
-2 août : Louis Blériot, constructeur d'avions et pilote français (° 1er juillet 1872).
+22 juillet : Otto Pilny, peintre suisse (° 28 juin 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Louis Blériot, constructeur d'avions et pilote français (° 1er juillet 1872).
 3 août :
 Fulgence Bienvenüe, père du métropolitain (° 27 janvier 1852).
 Pietro Romualdo Pirotta, naturaliste italien (° 7 février 1853).
@@ -655,9 +944,43 @@
 Grigori Zinoviev,  révolutionnaire bolchevik russe puis soviétique (° 23 septembre 1883).
 26 août : Albert Périlhou, compositeur, organiste et pianiste français (° 2 avril 1846).
 27 août : Luca Postiglione, peintre italien (° 18 octobre 1876).
-28 août : Lina Bill, peintre français (° 6 janvier 1855).
-Septembre
-7 septembre : Erich Büttner, peintre allemand (° 7 octobre 1889).
+28 août : Lina Bill, peintre français (° 6 janvier 1855).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7 septembre : Erich Büttner, peintre allemand (° 7 octobre 1889).
 12 septembre : Hermann Hirt, philologue et indo-européaniste allemand (° 19 décembre 1865).
 16 septembre : Jean-Baptiste Charcot, explorateur français (° 15 juillet 1867).
 17 septembre : Henry Le Chatelier, chimiste français (° 8 octobre 1850).
@@ -665,9 +988,43 @@
 21 septembre :
 Antoine Meillet, linguiste français (° 11 novembre 1866).
 Gaston Noury, peintre, pastelliste, affichiste et dessinateur français (° 17 décembre 1865).
-29 septembre : Alphonse-Charles de Bourbon, prince capétien de la branche espagnole de la maison de Bourbon (° 12 septembre 1849).
-Octobre
-2 octobre : Emil Cardinaux, peintre suisse (° 11 novembre 1877).
+29 septembre : Alphonse-Charles de Bourbon, prince capétien de la branche espagnole de la maison de Bourbon (° 12 septembre 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Emil Cardinaux, peintre suisse (° 11 novembre 1877).
 3 octobre : William Arthur Parks, géologue et paléontologue canadien (° 11 décembre 1868).
 4 octobre : Pierre Leprat, peintre et professeur de dessin et d'histoire de l'art français (° 16 avril 1849).
 6 octobre : Valère Bernard, peintre, écrivain et poète français (° 10 février 1860).
@@ -688,14 +1045,48 @@
 Georges Darnet, peintre français (° 22 mars 1859).
 Ferdynand Ruszczyc, peintre, imprimeur et scénographe polonais (° 10 décembre 1870).
 Lorado Taft, sculpteur américain (° 29 avril 1860).
-31 octobre : Ignacy Daszyński, homme politique polonais (° 26 octobre 1866).
-Novembre
-2 novembre :
+31 octobre : Ignacy Daszyński, homme politique polonais (° 26 octobre 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2 novembre :
 Ernst Albert, acteur de théâtre et biologiste allemand (° 21 mai 1859).
 Lorenzo Viani, peintre, graveur et écrivain italien (° 1er novembre 1882).
 3 novembre : Henri-Julien Dumont, peintre, affichiste et graveur français (° 14 décembre 1856).
 6 novembre : Ossip Braz, peintre russe puis soviétique (° 16 janvier 1873).
-7 novembre : Monchín Triana, footballeur international espagnol (° 28 juin 1902)[1].
+7 novembre : Monchín Triana, footballeur international espagnol (° 28 juin 1902).
 11 novembre :
 Jules Courvoisier, affichiste suisse (° 23 mai 1884).
 Edward German, musicien et compositeur d'origine galloise (° 17 février 1862).
@@ -712,9 +1103,43 @@
 Edward Bach, médecin britannique (° 24 septembre 1886).
 28 novembre : François Nardi, peintre français d'origine italienne (° 7 décembre 1861).
 29 novembre : Bombita (Ricardo Torres Reina), matador espagnol (° 20 février 1879).
-? novembre : Gabriel de Cool, peintre français (° 14 octobre 1854).
-Décembre
-2 décembre : Daniel Helguera, footballeur espagnol (° 23 avril 1909).
+? novembre : Gabriel de Cool, peintre français (° 14 octobre 1854).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Daniel Helguera, footballeur espagnol (° 23 avril 1909).
 7 décembre : Jean Mermoz, aviateur français (° 9 décembre 1901).
 10 décembre : Félix Durbesson, peintre français (° 17 juillet 1858).
 12 décembre : Arsène-Marie Le Feuvre, peintre et homme politique français (° 6 mai 1863).
@@ -733,9 +1158,43 @@
 Ernest Grosjean, organiste et compositeur français (° 18 décembre 1844).
 30 décembre :
 « Algabeño hijo » (José García Carranza), matador espagnol (° 26 février 1902).
-Constantin Kousnetzoff, peintre russe puis soviétique (° 22 août 1863).
-Date précise inconnue
-Théo Mayan, peintre français (° 22 décembre 1860).</t>
+Constantin Kousnetzoff, peintre russe puis soviétique (° 22 août 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1936</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1936</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Théo Mayan, peintre français (° 22 décembre 1860).</t>
         </is>
       </c>
     </row>
